--- a/reference Excel sheets/filter files.xlsx
+++ b/reference Excel sheets/filter files.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritup\projects\excel sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranajit jana\Documents\GitHub\examples\reference Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFEE04-758B-4E51-9E8C-F7FD8CFF6B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F423672-B41D-43E7-85AB-1C4845DC1FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{303AF238-1326-4A87-AA45-52A62AB78C0C}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{303AF238-1326-4A87-AA45-52A62AB78C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -978,9 +978,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F11C59D-1A2F-40F4-B5FB-E6DA8ED142AF}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -1283,6 +1283,9 @@
       <c r="E14">
         <v>195</v>
       </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1300,6 +1303,9 @@
       <c r="E15">
         <v>205</v>
       </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1317,8 +1323,11 @@
       <c r="E16">
         <v>395</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1334,8 +1343,11 @@
       <c r="E17">
         <v>251</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1351,8 +1363,11 @@
       <c r="E18">
         <v>349</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1368,8 +1383,11 @@
       <c r="E19">
         <v>479</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1382,8 +1400,11 @@
       <c r="E20">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1396,8 +1417,11 @@
       <c r="E21">
         <v>413</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1413,8 +1437,11 @@
       <c r="E22">
         <v>318</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1430,8 +1457,11 @@
       <c r="E23">
         <v>405</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1447,8 +1477,11 @@
       <c r="E24">
         <v>525</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1461,8 +1494,11 @@
       <c r="E25">
         <v>309</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1475,8 +1511,11 @@
       <c r="E26">
         <v>405</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1492,8 +1531,11 @@
       <c r="E27">
         <v>534</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1506,8 +1548,11 @@
       <c r="E28">
         <v>314</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1520,8 +1565,11 @@
       <c r="E29">
         <v>405</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1534,8 +1582,11 @@
       <c r="E30">
         <v>530</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1548,8 +1599,11 @@
       <c r="E31">
         <v>195</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1562,8 +1616,11 @@
       <c r="E32">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1579,8 +1636,11 @@
       <c r="E33">
         <v>395</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1596,8 +1656,11 @@
       <c r="E34">
         <v>195</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1613,8 +1676,11 @@
       <c r="E35">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1630,8 +1696,11 @@
       <c r="E36">
         <v>395</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1647,8 +1716,11 @@
       <c r="E37">
         <v>251</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>17</v>
       </c>
@@ -1664,8 +1736,11 @@
       <c r="E38">
         <v>349</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18</v>
       </c>
@@ -1681,8 +1756,11 @@
       <c r="E39">
         <v>479</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -1695,8 +1773,11 @@
       <c r="E40">
         <v>253</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
@@ -1708,6 +1789,19 @@
       </c>
       <c r="E41">
         <v>413</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/reference Excel sheets/filter files.xlsx
+++ b/reference Excel sheets/filter files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranajit jana\Documents\GitHub\examples\reference Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F423672-B41D-43E7-85AB-1C4845DC1FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7BD205-48DB-45E4-987A-FDD8DB694698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{303AF238-1326-4A87-AA45-52A62AB78C0C}"/>
   </bookViews>
@@ -22,6 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +141,36 @@
   </si>
   <si>
     <t>Pidgeot</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>down</t>
   </si>
 </sst>
 </file>
@@ -173,8 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +228,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ranajit jana" refreshedDate="44806.673283449076" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{C46736BC-D73E-419B-B34A-8AC6A4033D78}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="R1:T41" sheet="COPY"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Type 1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Type 2" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Poison"/>
+        <m/>
+        <s v="Flying"/>
+        <s v="Poisoin"/>
+        <s v="down"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="195" maxValue="534"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+  <r>
+    <s v="Grass"/>
+    <x v="0"/>
+    <n v="318"/>
+  </r>
+  <r>
+    <s v="Grass"/>
+    <x v="0"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="Grass"/>
+    <x v="0"/>
+    <n v="525"/>
+  </r>
+  <r>
+    <s v="Fire"/>
+    <x v="1"/>
+    <n v="309"/>
+  </r>
+  <r>
+    <s v="Fire"/>
+    <x v="1"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="Fire"/>
+    <x v="2"/>
+    <n v="534"/>
+  </r>
+  <r>
+    <s v="Water"/>
+    <x v="1"/>
+    <n v="314"/>
+  </r>
+  <r>
+    <s v="Water"/>
+    <x v="1"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="Water"/>
+    <x v="1"/>
+    <n v="530"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="1"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="1"/>
+    <n v="205"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="2"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="3"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="0"/>
+    <n v="205"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="0"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="2"/>
+    <n v="251"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="2"/>
+    <n v="349"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="2"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="1"/>
+    <n v="253"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="1"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <s v="Grass"/>
+    <x v="0"/>
+    <n v="318"/>
+  </r>
+  <r>
+    <s v="Grass"/>
+    <x v="0"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="Grass"/>
+    <x v="0"/>
+    <n v="525"/>
+  </r>
+  <r>
+    <s v="Fire"/>
+    <x v="4"/>
+    <n v="309"/>
+  </r>
+  <r>
+    <s v="Fire"/>
+    <x v="1"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="Fire"/>
+    <x v="2"/>
+    <n v="534"/>
+  </r>
+  <r>
+    <s v="Water"/>
+    <x v="1"/>
+    <n v="314"/>
+  </r>
+  <r>
+    <s v="Water"/>
+    <x v="1"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="Water"/>
+    <x v="1"/>
+    <n v="530"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="1"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="1"/>
+    <n v="205"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="2"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="3"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="0"/>
+    <n v="205"/>
+  </r>
+  <r>
+    <s v="Bug"/>
+    <x v="0"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="2"/>
+    <n v="251"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="2"/>
+    <n v="349"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="2"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="1"/>
+    <n v="253"/>
+  </r>
+  <r>
+    <s v="Normal"/>
+    <x v="1"/>
+    <n v="413"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C37C1D6-A36A-4FE3-9D1E-F67BFE3E3DC2}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V2:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,7 +823,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,9 +838,6 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
@@ -524,9 +852,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
@@ -541,9 +866,6 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
@@ -558,9 +880,6 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
@@ -575,9 +894,6 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>309</v>
       </c>
@@ -589,9 +905,6 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>405</v>
       </c>
@@ -603,9 +916,6 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
@@ -620,9 +930,6 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8">
         <v>314</v>
       </c>
@@ -634,9 +941,6 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="E9">
         <v>405</v>
       </c>
@@ -648,9 +952,6 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
       <c r="E10">
         <v>530</v>
       </c>
@@ -662,9 +963,6 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="E11">
         <v>195</v>
       </c>
@@ -676,9 +974,6 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="E12">
         <v>205</v>
       </c>
@@ -690,9 +985,6 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
@@ -707,9 +999,6 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -724,9 +1013,6 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
@@ -741,9 +1027,6 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
@@ -758,9 +1041,6 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -775,9 +1055,6 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
@@ -792,9 +1069,6 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -808,9 +1082,6 @@
       </c>
       <c r="B20" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
       </c>
       <c r="E20">
         <v>253</v>
@@ -978,18 +1249,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F11C59D-1A2F-40F4-B5FB-E6DA8ED142AF}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="22" max="22" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1005,14 +1278,23 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="K1">
+      <c r="O1">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1028,14 +1310,29 @@
       <c r="E2">
         <v>318</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2">
+        <v>318</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1051,14 +1348,29 @@
       <c r="E3">
         <v>405</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3">
+        <v>405</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="3">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1074,14 +1386,29 @@
       <c r="E4">
         <v>525</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4">
+        <v>525</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1094,14 +1421,26 @@
       <c r="E5">
         <v>309</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>309</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1114,14 +1453,29 @@
       <c r="E6">
         <v>405</v>
       </c>
-      <c r="K6">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6">
+        <v>405</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1137,14 +1491,44 @@
       <c r="E7">
         <v>534</v>
       </c>
-      <c r="K7">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7">
+        <v>534</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1157,14 +1541,29 @@
       <c r="E8">
         <v>314</v>
       </c>
-      <c r="K8">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8">
+        <v>314</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="3">
+        <v>14160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1177,14 +1576,23 @@
       <c r="E9">
         <v>405</v>
       </c>
-      <c r="K9">
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1197,14 +1605,26 @@
       <c r="E10">
         <v>530</v>
       </c>
-      <c r="K10">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1217,14 +1637,26 @@
       <c r="E11">
         <v>195</v>
       </c>
-      <c r="K11">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1237,14 +1669,26 @@
       <c r="E12">
         <v>205</v>
       </c>
-      <c r="K12">
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12">
         <v>12</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1260,14 +1704,29 @@
       <c r="E13">
         <v>395</v>
       </c>
-      <c r="K13">
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1283,11 +1742,26 @@
       <c r="E14">
         <v>195</v>
       </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
       <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1303,11 +1777,26 @@
       <c r="E15">
         <v>205</v>
       </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
       <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1323,11 +1812,26 @@
       <c r="E16">
         <v>395</v>
       </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
       <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1344,10 +1848,22 @@
         <v>251</v>
       </c>
       <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1364,10 +1880,22 @@
         <v>349</v>
       </c>
       <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1384,10 +1912,22 @@
         <v>479</v>
       </c>
       <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1400,11 +1940,17 @@
       <c r="E20">
         <v>253</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1417,11 +1963,17 @@
       <c r="E21">
         <v>413</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1437,11 +1989,20 @@
       <c r="E22">
         <v>318</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1457,11 +2018,20 @@
       <c r="E23">
         <v>405</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1477,11 +2047,20 @@
       <c r="E24">
         <v>525</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1494,11 +2073,20 @@
       <c r="E25">
         <v>309</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1511,11 +2099,17 @@
       <c r="E26">
         <v>405</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1531,11 +2125,20 @@
       <c r="E27">
         <v>534</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1548,11 +2151,17 @@
       <c r="E28">
         <v>314</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1565,11 +2174,17 @@
       <c r="E29">
         <v>405</v>
       </c>
-      <c r="L29" t="s">
+      <c r="P29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1582,11 +2197,17 @@
       <c r="E30">
         <v>530</v>
       </c>
-      <c r="L30" t="s">
+      <c r="P30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1599,11 +2220,17 @@
       <c r="E31">
         <v>195</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1616,11 +2243,17 @@
       <c r="E32">
         <v>205</v>
       </c>
-      <c r="L32" t="s">
+      <c r="P32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1636,11 +2269,20 @@
       <c r="E33">
         <v>395</v>
       </c>
-      <c r="L33" t="s">
+      <c r="P33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1656,11 +2298,20 @@
       <c r="E34">
         <v>195</v>
       </c>
-      <c r="L34" t="s">
+      <c r="P34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1676,11 +2327,20 @@
       <c r="E35">
         <v>205</v>
       </c>
-      <c r="L35" t="s">
+      <c r="P35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1696,11 +2356,20 @@
       <c r="E36">
         <v>395</v>
       </c>
-      <c r="L36" t="s">
+      <c r="P36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1716,11 +2385,20 @@
       <c r="E37">
         <v>251</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>17</v>
       </c>
@@ -1736,11 +2414,20 @@
       <c r="E38">
         <v>349</v>
       </c>
-      <c r="L38" t="s">
+      <c r="P38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18</v>
       </c>
@@ -1756,11 +2443,20 @@
       <c r="E39">
         <v>479</v>
       </c>
-      <c r="L39" t="s">
+      <c r="P39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -1773,11 +2469,17 @@
       <c r="E40">
         <v>253</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
@@ -1790,17 +2492,23 @@
       <c r="E41">
         <v>413</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L42" t="s">
+      <c r="R41" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="P42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L43" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="P43" t="s">
         <v>9</v>
       </c>
     </row>
